--- a/biology/Médecine/Fracture_costale/Fracture_costale.xlsx
+++ b/biology/Médecine/Fracture_costale/Fracture_costale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La fracture costale, rupture d'une ou plusieurs côtes, rend la respiration douloureuse, difficile. Elle peut entraîner une atteinte des poumons, et notamment un hémothorax (le poumon se remplit de sang) ou un pneumothorax (le poumon a une « fuite d'air » et ne peut plus jouer son rôle), qui peut mettre en jeu le pronostic vital.
 Outre la douleur et la difficulté respiratoire, on peut avoir :
@@ -513,14 +525,16 @@
           <t>Radiographie du gril costal ou thorax osseux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Techniquement, il s'agit de mettre en évidence la partie osseuse du thorax, en modifiant l’exposition de la radiographie. L'indication est la mise en évidence de fracture de côte.
-Si cette technique est très spécifique (100 %[1]), elle est peu sensible (15 %[1]).
+Si cette technique est très spécifique (100 %), elle est peu sensible (15 %).
 En pratique elle est moins utilisée que la radiographie standard en cas de suspicion de fracture costale et ce pour deux raisons :
-on ne visualise pas le parenchyme pulmonaire et donc les complications de la fracture costale que sont l'hémothorax et le pneumothorax[2], seul indication à un traitement ;
+on ne visualise pas le parenchyme pulmonaire et donc les complications de la fracture costale que sont l'hémothorax et le pneumothorax, seul indication à un traitement ;
 avec les radiographies numérisées, la modification de l'exposition et du contraste permette de « fabriquer » une « fenêtre osseuse »
-La société américaine de radiologie (American College of Radiology[3]) dans un document nommée Critères de pertinence, de l'ACR (ACR Appropriateness Criteria), rédigé en 1999 et révisé en 2011, indique que la radiographie de gril costal est non appropriée avec un classement d'utilité de 2/10. Ces recommandations se basent notamment sur une étude qui a démontré que la prise en charge d'un patient avec ou sans fracture costal ne différait pas[4].
+La société américaine de radiologie (American College of Radiology) dans un document nommée Critères de pertinence, de l'ACR (ACR Appropriateness Criteria), rédigé en 1999 et révisé en 2011, indique que la radiographie de gril costal est non appropriée avec un classement d'utilité de 2/10. Ces recommandations se basent notamment sur une étude qui a démontré que la prise en charge d'un patient avec ou sans fracture costal ne différait pas.
 			Fracture de côte sur un scanner thoracique
 			Fracture de côte sur un scanner thoracique
 			Fracture de côte sur un scanner thoracique
